--- a/b_Images_and_Queries.xlsx
+++ b/b_Images_and_Queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sherm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDF76EE-5925-49D5-9A09-E89CF786387F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327DC463-2305-4E4E-AEEC-2707EFFA37E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
